--- a/Lecture 7 - Confidence Intervals/Examples/Greenland_example.xlsx
+++ b/Lecture 7 - Confidence Intervals/Examples/Greenland_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Teaching\Statistics\Introductory_statistics\Lecture 7 - Confidence Intervals\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBC2D22-2F7E-4510-A18F-E8667B532072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC93D6C-D4E1-4910-A5EF-A565B32C3EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D3B25321-43F5-4C91-BD9A-FF77B070E7E3}"/>
+    <workbookView xWindow="5955" yWindow="1830" windowWidth="21600" windowHeight="11295" xr2:uid="{D3B25321-43F5-4C91-BD9A-FF77B070E7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,12 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +479,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +522,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
@@ -531,7 +530,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
@@ -540,7 +539,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
@@ -552,7 +551,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -562,7 +561,7 @@
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -571,11 +570,8 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="str">
@@ -583,11 +579,8 @@
         <v>[0,8388; 0,8612]</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="3" t="str">
